--- a/public/Report.xlsx
+++ b/public/Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="Daily_History" state="visible" r:id="rId4"/>
@@ -510,7 +510,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -616,6 +615,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -931,10 +931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
@@ -1006,8 +1006,155 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C2" s="3"/>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>16</v>
+      </c>
+      <c r="I2">
+        <v>18</v>
+      </c>
+      <c r="J2">
+        <v>20</v>
+      </c>
+      <c r="K2">
+        <v>22</v>
+      </c>
+      <c r="L2">
+        <v>24</v>
+      </c>
+      <c r="M2">
+        <v>26</v>
+      </c>
+      <c r="N2">
+        <v>28</v>
+      </c>
+      <c r="O2">
+        <v>30</v>
+      </c>
+      <c r="P2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>18</v>
+      </c>
+      <c r="G3">
+        <v>21</v>
+      </c>
+      <c r="H3">
+        <v>24</v>
+      </c>
+      <c r="I3">
+        <v>27</v>
+      </c>
+      <c r="J3">
+        <v>30</v>
+      </c>
+      <c r="K3">
+        <v>33</v>
+      </c>
+      <c r="L3">
+        <v>36</v>
+      </c>
+      <c r="M3">
+        <v>39</v>
+      </c>
+      <c r="N3">
+        <v>42</v>
+      </c>
+      <c r="O3">
+        <v>45</v>
+      </c>
+      <c r="P3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>24</v>
+      </c>
+      <c r="G4">
+        <v>28</v>
+      </c>
+      <c r="H4">
+        <v>32</v>
+      </c>
+      <c r="I4">
+        <v>36</v>
+      </c>
+      <c r="J4">
+        <v>40</v>
+      </c>
+      <c r="K4">
+        <v>44</v>
+      </c>
+      <c r="L4">
+        <v>48</v>
+      </c>
+      <c r="M4">
+        <v>52</v>
+      </c>
+      <c r="N4">
+        <v>56</v>
+      </c>
+      <c r="O4">
+        <v>60</v>
+      </c>
+      <c r="P4">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1019,7 +1166,7 @@
   <dimension ref="B1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
@@ -1032,176 +1179,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="6" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="11"/>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="15" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" ht="26.25" customHeight="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="17">
+      <c r="D5" s="18"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="16">
         <v>2014</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="19">
         <v>2</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="19">
         <f>WEEKNUM(N5,1)-WEEKNUM(N4,1)+1</f>
         <v>1</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="19">
         <v>16</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="17">
         <v>22</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
     </row>
     <row r="7" ht="51.75" customHeight="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="22" t="s">
+      <c r="E7" s="23"/>
+      <c r="F7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="22"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="21"/>
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="27">
         <v>25599.625</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="28">
         <v>1234</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="34"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="33"/>
     </row>
     <row r="9" ht="15.75" customHeight="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="38"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1227,7 +1374,7 @@
   <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
@@ -1240,7 +1387,7 @@
       <c r="B1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="38">
         <v>43896</v>
       </c>
       <c r="H1">

--- a/public/Report.xlsx
+++ b/public/Report.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
   <si>
     <t>Date</t>
   </si>
@@ -66,6 +66,39 @@
   </si>
   <si>
     <t>SubName</t>
+  </si>
+  <si>
+    <t>20200313</t>
+  </si>
+  <si>
+    <t>999999</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>20150531</t>
+  </si>
+  <si>
+    <t>20160531</t>
+  </si>
+  <si>
+    <t>undefined</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Akiyama</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Training/Support</t>
   </si>
   <si>
     <t>Time Sheet</t>
@@ -931,7 +964,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="D2" sqref="D2"/>
@@ -1007,153 +1040,53 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>8</v>
-      </c>
-      <c r="E2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2">
+        <v>180</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2">
         <v>10</v>
       </c>
-      <c r="F2">
-        <v>12</v>
-      </c>
-      <c r="G2">
-        <v>14</v>
-      </c>
-      <c r="H2">
-        <v>16</v>
-      </c>
-      <c r="I2">
-        <v>18</v>
-      </c>
       <c r="J2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K2">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="L2">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
         <v>24</v>
       </c>
-      <c r="M2">
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" t="s">
         <v>26</v>
-      </c>
-      <c r="N2">
-        <v>28</v>
-      </c>
-      <c r="O2">
-        <v>30</v>
-      </c>
-      <c r="P2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>15</v>
-      </c>
-      <c r="F3">
-        <v>18</v>
-      </c>
-      <c r="G3">
-        <v>21</v>
-      </c>
-      <c r="H3">
-        <v>24</v>
-      </c>
-      <c r="I3">
-        <v>27</v>
-      </c>
-      <c r="J3">
-        <v>30</v>
-      </c>
-      <c r="K3">
-        <v>33</v>
-      </c>
-      <c r="L3">
-        <v>36</v>
-      </c>
-      <c r="M3">
-        <v>39</v>
-      </c>
-      <c r="N3">
-        <v>42</v>
-      </c>
-      <c r="O3">
-        <v>45</v>
-      </c>
-      <c r="P3">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>16</v>
-      </c>
-      <c r="E4">
-        <v>20</v>
-      </c>
-      <c r="F4">
-        <v>24</v>
-      </c>
-      <c r="G4">
-        <v>28</v>
-      </c>
-      <c r="H4">
-        <v>32</v>
-      </c>
-      <c r="I4">
-        <v>36</v>
-      </c>
-      <c r="J4">
-        <v>40</v>
-      </c>
-      <c r="K4">
-        <v>44</v>
-      </c>
-      <c r="L4">
-        <v>48</v>
-      </c>
-      <c r="M4">
-        <v>52</v>
-      </c>
-      <c r="N4">
-        <v>56</v>
-      </c>
-      <c r="O4">
-        <v>60</v>
-      </c>
-      <c r="P4">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1180,7 +1113,7 @@
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -1208,7 +1141,7 @@
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>13</v>
@@ -1218,16 +1151,16 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="5" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="L3" s="10"/>
     </row>
@@ -1242,18 +1175,18 @@
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
       <c r="K4" s="14" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" ht="26.25" customHeight="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="7"/>
@@ -1307,7 +1240,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I7" s="24" t="s">
         <v>7</v>
@@ -1318,7 +1251,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="26" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C8" s="27">
         <v>25599.625</v>
@@ -1337,7 +1270,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -1385,7 +1318,7 @@
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G1" s="38">
         <v>43896</v>
@@ -1405,18 +1338,18 @@
     </row>
     <row r="2" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -1425,7 +1358,7 @@
         <v>43896</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
@@ -1434,7 +1367,7 @@
         <v>43897</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
@@ -1443,7 +1376,7 @@
         <v>43898</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
@@ -1452,7 +1385,7 @@
         <v>43899</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
@@ -1461,7 +1394,7 @@
         <v>43900</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
@@ -1470,7 +1403,7 @@
         <v>43901</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
@@ -1479,35 +1412,35 @@
         <v>43902</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
